--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:39 AM</t>
+    <t>Monday, 21 July, 2025 9:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -62,7 +62,22 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:48 AM</t>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>Monday, 21 July, 2025 9:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +739,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>292</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -62,22 +62,97 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
     <t>28.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:49 AM</t>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Monday, 21 July, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -768,42 +843,273 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>292</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>24</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>19</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>726.92999999999995</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +1128,45 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -62,13 +62,22 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>78.00</t>
@@ -843,7 +852,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -859,7 +868,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -869,14 +878,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -885,31 +894,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -918,20 +927,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -958,7 +967,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -968,14 +977,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -984,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1001,11 +1010,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1017,14 +1026,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1041,7 +1050,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1057,13 +1066,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1074,42 +1083,75 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>726.92999999999995</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>48</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>49</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>828.92999999999995</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1163,10 +1205,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:56 AM</t>
+    <t>Monday, 21 July, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -131,6 +152,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -143,6 +173,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8522:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -152,16 +194,25 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:58 AM</t>
+    <t>Monday, 21 July, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -940,7 +991,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -967,21 +1018,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -993,14 +1044,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1017,7 +1068,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1033,7 +1084,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1043,11 +1094,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1059,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1083,7 +1134,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1105,7 +1156,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1120,38 +1171,203 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>828.92999999999995</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>56</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>983.76999999999998</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1426,35 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -155,10 +167,13 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -212,7 +227,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 10:12 AM</t>
+    <t>Monday, 21 July, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1002,7 +1017,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1024,7 +1039,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1051,21 +1066,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1077,7 +1092,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1094,14 +1109,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,14 +1125,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1150,7 +1165,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,11 +1175,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1176,14 +1191,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,11 +1208,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1209,14 +1224,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,14 +1241,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,14 +1257,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1259,14 +1274,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,31 +1290,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1308,66 +1323,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>61</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>983.76999999999998</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>69</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1023.6</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>72</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>73</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>74</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1532,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -110,6 +119,12 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -164,6 +179,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -179,9 +206,6 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -224,10 +248,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Monday, 21 July, 2025 10:35 AM</t>
+    <t>Monday, 21 July, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1000,7 +1021,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1010,14 +1031,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1026,14 +1047,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1043,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1059,31 +1080,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1092,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1109,11 +1130,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1125,31 +1146,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1158,14 +1179,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1175,14 +1196,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1191,14 +1212,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1208,11 +1229,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1231,7 +1252,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1241,14 +1262,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1257,14 +1278,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1274,11 +1295,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1290,14 +1311,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1307,14 +1328,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1323,14 +1344,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1340,11 +1361,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1356,31 +1377,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1389,66 +1410,165 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>71</v>
       </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1023.6</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>53</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>72</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>73</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>74</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>75</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>76</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>69</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1106.8250000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>79</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>80</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>81</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1542,10 +1662,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 10:39 AM</t>
+    <t>Monday, 21 July, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 10:46 AM</t>
+    <t>Monday, 21 July, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -194,6 +194,12 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -236,19 +242,25 @@
     <t>ايزي سويت قطعه</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 10:51 AM</t>
+    <t>Monday, 21 July, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1351,7 +1363,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,14 +1373,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,14 +1389,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1427,14 +1439,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,14 +1455,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1460,14 +1472,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,31 +1488,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1509,14 +1521,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1526,49 +1538,115 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>57</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1106.8250000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>79</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>57</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>80</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>71</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1152.8250000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>83</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>84</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>85</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1677,10 +1755,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -194,12 +206,18 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -218,6 +236,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -260,7 +290,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 11:00 AM</t>
+    <t>Monday, 21 July, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1149,7 +1179,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1171,7 +1201,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1198,21 +1228,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1224,7 +1254,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1241,14 +1271,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1257,14 +1287,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1330,7 +1360,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1340,11 +1370,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1356,14 +1386,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1373,11 +1403,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1389,14 +1419,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1406,14 +1436,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,14 +1452,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1439,11 +1469,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1462,7 +1492,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1472,14 +1502,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,14 +1518,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,14 +1535,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1521,20 +1551,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1545,7 +1575,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1561,24 +1591,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1587,66 +1617,165 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1152.8250000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>83</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>84</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>85</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>39</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>61</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>81</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1239.8250000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>93</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>94</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>95</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1765,10 +1894,25 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -179,6 +179,12 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -206,6 +209,15 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>OCUMETHYL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -251,46 +263,49 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8522:0</t>
+    <t>8521:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>Monday, 21 July, 2025 11:21 AM</t>
+    <t>Monday, 21 July, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1337,11 +1352,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,11 +1385,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1386,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,11 +1418,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1436,11 +1451,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,11 +1484,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1492,7 +1507,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1509,7 +1524,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1525,7 +1540,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1535,11 +1550,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1568,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1584,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,14 +1632,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1634,14 +1649,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1650,31 +1665,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1683,31 +1698,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1733,49 +1748,115 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1239.8250000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>93</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>57</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>94</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>85</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1370.8250000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>98</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>99</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>100</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1909,10 +1990,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -305,7 +314,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 11:24 AM</t>
+    <t>Monday, 21 July, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1549,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1623,7 +1632,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1639,7 +1648,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1722,7 +1731,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1738,13 +1747,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1755,7 +1764,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1771,7 +1780,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1788,7 +1797,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1814,49 +1823,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>99</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>88</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1370.8250000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>98</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>99</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>100</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1495.8250000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>101</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>102</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>103</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2000,10 +2042,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -137,6 +149,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -185,6 +209,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -218,6 +248,18 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OCUMETHYL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -296,9 +338,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -314,7 +353,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 11:36 AM</t>
+    <t>Monday, 21 July, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,7 +1126,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1097,11 +1136,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1113,14 +1152,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1137,7 +1176,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1163,11 +1202,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1179,14 +1218,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1196,11 +1235,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1236,7 +1275,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1258,7 +1297,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1285,7 +1324,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1295,11 +1334,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1311,31 +1350,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1344,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,14 +1400,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1377,14 +1416,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1394,11 +1433,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1410,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,11 +1466,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1443,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,11 +1532,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1509,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,11 +1565,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1542,7 +1581,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1559,11 +1598,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1575,14 +1614,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1592,11 +1631,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1608,14 +1647,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1625,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,11 +1697,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1674,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1691,11 +1730,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1707,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1724,14 +1763,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1747,7 +1786,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1780,13 +1819,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1797,7 +1836,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1813,21 +1852,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1839,66 +1878,198 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1495.8250000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>101</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>69</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>19</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>105</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>43</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>109</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>65</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>110</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>102</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>103</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1562.4549999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>114</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>115</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>116</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2047,10 +2218,30 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>4.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
   </si>
   <si>
     <t>Monday, 21 July, 2025 11:39 AM</t>
@@ -2038,38 +2047,71 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1562.4549999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>114</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>41</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>115</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1597.4549999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>117</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>118</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>119</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2238,10 +2280,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -227,6 +227,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -353,6 +359,9 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -362,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 11:39 AM</t>
+    <t>Monday, 21 July, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1564,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,11 +1616,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,11 +1649,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,11 +1682,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,11 +1715,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1722,7 +1731,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1739,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,11 +1781,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1871,11 +1880,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,31 +1962,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2007,10 +2016,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2069,49 +2078,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>116</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1597.4549999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>112</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>117</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>41</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>118</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>119</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1662.4549999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>120</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>121</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>122</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2285,10 +2360,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 11:40 AM</t>
+    <t>Monday, 21 July, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -365,13 +377,10 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 11:49 AM</t>
+    <t>Monday, 21 July, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1128,7 +1137,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1161,7 +1170,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1177,7 +1186,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1187,11 +1196,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1227,7 +1236,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1253,11 +1262,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,11 +1295,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1326,7 +1335,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1381,7 +1390,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1408,21 +1417,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1434,7 +1443,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1451,14 +1460,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,11 +1493,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,11 +1592,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,11 +1625,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,11 +1691,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1738,7 +1747,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,11 +1757,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1764,7 +1773,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1781,11 +1790,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1953,7 +1962,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,31 +2004,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2094,7 +2103,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2144,49 +2153,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1662.4549999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>120</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>121</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>45</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>27</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>122</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1669.4549999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>123</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>124</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>125</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2370,10 +2412,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -86,15 +86,21 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APPE-RAISE SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
     <t>5:3</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>7.0000</t>
   </si>
   <si>
@@ -206,6 +212,18 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -218,15 +236,18 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>8:1</t>
   </si>
   <si>
+    <t>MACROFURAN 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -308,6 +329,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -377,10 +407,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Monday, 21 July, 2025 11:51 AM</t>
+    <t>Monday, 21 July, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,7 +1147,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1130,14 +1157,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1146,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1163,14 +1190,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,14 +1206,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,14 +1223,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1212,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,11 +1256,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1245,14 +1272,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1262,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1278,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,11 +1322,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1328,11 +1355,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1344,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1361,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,14 +1404,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,11 +1421,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1410,28 +1437,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1443,28 +1470,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1476,7 +1503,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1493,14 +1520,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,11 +1553,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,14 +1586,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1575,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,11 +1619,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1608,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1652,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,11 +1718,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1707,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,7 +1751,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1747,7 +1774,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,11 +1784,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1773,7 +1800,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1790,11 +1817,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,11 +1850,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1839,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,11 +1883,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1879,7 +1906,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1896,7 +1923,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1912,7 +1939,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1945,7 +1972,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,11 +1982,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1971,14 +1998,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,14 +2031,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2021,11 +2048,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2037,31 +2064,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,28 +2097,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2103,31 +2130,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2143,24 +2170,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2186,49 +2213,181 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1669.4549999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>123</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>124</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>125</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>68</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>126</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>128</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>118</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>130</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>13</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>126</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>131</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>47</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>13</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>26</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1770.7750000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>132</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>133</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>134</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2417,10 +2576,30 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -224,6 +233,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -251,9 +272,6 @@
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -296,9 +314,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>OCUMETHYL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -407,7 +422,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:01 PM</t>
+    <t>Monday, 21 July, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,21 +1492,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1503,20 +1518,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1543,7 +1558,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1568,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1584,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1609,7 +1624,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,11 +1634,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1635,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1667,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,11 +1832,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1850,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,11 +1898,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,11 +1931,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1953,7 +1968,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,11 +1997,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,14 +2096,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,31 +2211,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2236,13 +2251,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2253,7 +2268,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2269,7 +2284,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2302,7 +2317,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2312,11 +2327,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2345,49 +2360,115 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>13</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>131</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>136</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>47</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>13</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>26</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>27</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1770.7750000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>132</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>133</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>134</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1835.7750000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>137</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>138</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>139</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2596,10 +2677,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:06 PM</t>
+    <t>Monday, 21 July, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -377,43 +377,52 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8521:0</t>
+    <t>8520:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>4.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2235,7 +2244,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,7 +2376,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2393,11 +2402,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2426,49 +2435,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>139</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>47</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>13</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>26</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>27</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1835.7750000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>137</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>138</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>139</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1842.7750000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>140</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>141</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>142</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2687,10 +2729,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -425,13 +425,16 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:08 PM</t>
+    <t>Monday, 21 July, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2425,7 +2428,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2458,7 +2461,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2468,49 +2471,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>140</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>47</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>26</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>27</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1842.7750000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>140</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1892.7750000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>141</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
         <v>142</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>143</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2734,10 +2770,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -236,15 +248,21 @@
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -401,6 +419,12 @@
     <t>10.00</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>92:0</t>
+  </si>
+  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -422,19 +446,31 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:18 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Monday, 21 July, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1141,7 +1177,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1158,7 +1194,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1167,14 +1203,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1184,14 +1220,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1200,14 +1236,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1217,14 +1253,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1233,14 +1269,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1250,14 +1286,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1290,7 +1326,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1306,7 +1342,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1316,11 +1352,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1332,14 +1368,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1356,7 +1392,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1382,11 +1418,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1398,14 +1434,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1415,11 +1451,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1455,7 +1491,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1504,7 +1540,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1514,11 +1550,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1530,20 +1566,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1570,21 +1606,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1596,14 +1632,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1620,7 +1656,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1669,7 +1705,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1702,7 +1738,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1712,11 +1748,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1728,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,14 +1830,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1811,14 +1847,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,14 +1880,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,14 +1896,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1877,11 +1913,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1893,14 +1929,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,11 +1946,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,11 +1979,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1959,14 +1995,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,11 +2012,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1999,7 +2035,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2032,7 +2068,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,11 +2078,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2065,7 +2101,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2075,11 +2111,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2091,14 +2127,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2108,14 +2144,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,14 +2160,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2141,14 +2177,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2164,7 +2200,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2181,7 +2217,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2197,7 +2233,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2273,14 +2309,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,20 +2325,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2310,10 +2346,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,31 +2358,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,14 +2391,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2372,14 +2408,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2388,14 +2424,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2405,11 +2441,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2428,7 +2464,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2438,11 +2474,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2454,7 +2490,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2471,14 +2507,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2487,14 +2523,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2504,49 +2540,181 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1892.7750000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>141</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>142</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>143</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>145</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>105</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>13</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>41</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>146</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>139</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>148</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>51</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>30</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>149</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>150</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>151</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2188.7750000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>153</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>154</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>155</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2775,10 +2943,30 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -470,7 +470,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:21 PM</t>
+    <t>Monday, 21 July, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -149,6 +149,12 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -272,6 +278,15 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -470,7 +485,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:46 PM</t>
+    <t>Monday, 21 July, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1408,7 +1423,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,11 +1433,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,11 +1466,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1484,11 +1499,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1500,14 +1515,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1517,14 +1532,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1533,14 +1548,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1550,11 +1565,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1566,14 +1581,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,11 +1598,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1599,28 +1614,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1632,28 +1647,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1682,14 +1697,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1698,14 +1713,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1715,11 +1730,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1731,14 +1746,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,11 +1763,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1764,7 +1779,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1781,11 +1796,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1797,14 +1812,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,11 +1829,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1830,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1862,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1896,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1928,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1936,7 +1951,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1969,7 +1984,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2002,7 +2017,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,11 +2027,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2028,14 +2043,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,11 +2060,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2061,14 +2076,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,11 +2093,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,11 +2126,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2148,7 +2163,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2160,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,11 +2192,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,14 +2225,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,14 +2241,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2258,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2276,14 +2291,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,14 +2390,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,31 +2406,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2431,24 +2446,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2497,7 +2512,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2530,7 +2545,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2544,10 +2559,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2556,14 +2571,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2589,7 +2604,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2606,14 +2621,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2672,49 +2687,115 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2188.7750000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>153</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>53</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>30</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>154</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>155</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>156</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2392.7750000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>158</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>159</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>160</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2963,10 +3044,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -242,9 +254,6 @@
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -335,7 +344,7 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
+    <t>180.0000</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -410,15 +419,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8520:0</t>
+    <t>8519:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -485,7 +491,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:47 PM</t>
+    <t>Monday, 21 July, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1390,7 +1396,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1400,14 +1406,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1416,14 +1422,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,14 +1439,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1449,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,7 +1472,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1499,11 +1505,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1515,14 +1521,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,11 +1538,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1572,7 +1578,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1621,7 +1627,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,11 +1637,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1647,20 +1653,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1687,21 +1693,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1737,7 +1743,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1753,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1786,7 +1792,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1852,7 +1858,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1885,7 +1891,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1928,14 +1934,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,11 +1967,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2017,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,11 +2033,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2043,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,7 +2066,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2083,7 +2089,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,11 +2132,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2149,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2182,7 +2188,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2248,7 +2254,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,11 +2264,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2274,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,14 +2297,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2314,7 +2320,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2347,7 +2353,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2364,7 +2370,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2380,7 +2386,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,11 +2396,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2429,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2460,10 +2466,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,31 +2478,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2512,7 +2518,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2545,7 +2551,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2555,11 +2561,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2588,14 +2594,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2644,7 +2650,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2670,14 +2676,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2687,14 +2693,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2710,7 +2716,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2753,49 +2759,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>156</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>157</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2392.7750000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>13</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>158</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>159</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2528.7750000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
         <v>160</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>161</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>162</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3054,10 +3093,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -458,18 +458,24 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -491,7 +497,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:50 PM</t>
+    <t>Monday, 21 July, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2634,7 +2640,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,7 +2670,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>44</v>
@@ -2676,7 +2682,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2726,14 +2732,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2749,7 +2755,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2792,49 +2798,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>158</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>159</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2528.7750000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>13</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>160</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>161</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2544.7750000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
         <v>162</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>163</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>164</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3098,10 +3137,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
   </si>
   <si>
@@ -458,7 +470,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -497,7 +512,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 12:58 PM</t>
+    <t>Monday, 21 July, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1483,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1478,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1511,7 +1526,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1544,11 +1559,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1560,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1577,11 +1592,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1617,7 +1632,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1666,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,11 +1691,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1692,20 +1707,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1732,21 +1747,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,11 +1856,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1857,7 +1872,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1874,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,11 +1955,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,11 +2087,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,11 +2120,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2208,10 +2223,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,11 +2252,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2253,7 +2268,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2270,11 +2285,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,11 +2318,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2472,10 +2487,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,31 +2532,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2600,11 +2615,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2649,7 +2664,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2666,14 +2681,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2732,11 +2747,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2769,10 +2784,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2831,49 +2846,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2544.7750000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>162</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>163</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>164</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>13</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>165</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2558.6550000000002</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>167</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>168</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>169</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3142,10 +3190,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -224,99 +224,102 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>48.00</t>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>8:1</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
     <t>MACROFURAN 50MG 30 CAPS</t>
   </si>
   <si>
@@ -512,7 +515,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 1:01 PM</t>
+    <t>Monday, 21 July, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1691,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2058,7 +2061,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2124,7 +2127,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>44</v>
@@ -2235,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,7 +2255,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2268,7 +2271,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2285,11 +2288,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2318,11 +2321,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2334,7 +2337,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2384,11 +2387,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2417,11 +2420,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2483,11 +2486,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,7 +2535,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2549,11 +2552,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2565,7 +2568,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2582,7 +2585,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,7 +2618,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2631,7 +2634,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2648,11 +2651,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,7 +2700,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>44</v>
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2751,7 +2754,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2763,7 +2766,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2780,7 +2783,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2796,7 +2799,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2813,11 +2816,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>44</v>
@@ -2829,7 +2832,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2879,11 +2882,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2891,13 +2894,13 @@
     </row>
     <row r="60" ht="24.75" customHeight="1">
       <c r="P60" s="13">
-        <v>2558.6550000000002</v>
+        <v>2574.4949999999999</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c t="s" r="A61" s="14">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2905,13 +2908,13 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c t="s" r="G61" s="15">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
       <c t="s" r="K61" s="17">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 1:08 PM</t>
+    <t>Monday, 21 July, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 1:25 PM</t>
+    <t>Monday, 21 July, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>زيت حرير 100مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2783,11 +2792,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2882,49 +2891,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>167</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2574.4949999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>168</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>13</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>169</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>170</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2629.4949999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>171</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>172</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>173</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3198,10 +3240,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -2683,7 +2683,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -143,15 +143,18 @@
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -194,9 +197,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -359,7 +359,7 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>180.0000</t>
+    <t>270.0000</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -434,12 +434,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8519:0</t>
+    <t>8520:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -524,7 +527,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 1:26 PM</t>
+    <t>Monday, 21 July, 2025 1:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1446,7 +1449,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,7 +1458,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1472,11 +1475,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1488,14 +1491,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,11 +1508,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1521,7 +1524,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1554,14 +1557,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,11 +1574,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1587,14 +1590,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1825,7 +1828,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1990,7 +1993,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2155,7 +2158,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2221,7 +2224,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2419,7 +2422,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2452,7 +2455,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2532,10 +2535,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,14 +2613,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2676,7 +2679,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2730,10 +2733,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,7 +2745,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2825,7 +2828,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2936,13 +2939,13 @@
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="P61" s="13">
-        <v>2629.4949999999999</v>
+        <v>2765.4949999999999</v>
       </c>
       <c r="Q61" s="13"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c t="s" r="A62" s="14">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2950,13 +2953,13 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c t="s" r="G62" s="15">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
       <c t="s" r="K62" s="17">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -401,6 +401,9 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -527,7 +530,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 1:44 PM</t>
+    <t>Monday, 21 July, 2025 1:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2422,7 +2425,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2435,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2451,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2468,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2498,11 +2501,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,14 +2550,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2564,14 +2567,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,31 +2583,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,14 +2616,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2630,14 +2633,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,14 +2649,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2663,11 +2666,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2679,14 +2682,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2696,11 +2699,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2712,14 +2715,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2729,14 +2732,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2745,7 +2748,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2762,14 +2765,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2778,14 +2781,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2795,14 +2798,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2818,7 +2821,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2828,11 +2831,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2851,7 +2854,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2861,14 +2864,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2877,14 +2880,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2894,14 +2897,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2917,7 +2920,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2927,49 +2930,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>169</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>170</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>13</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>171</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2765.4949999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>172</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2788.4949999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
         <v>173</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
         <v>174</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>175</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3248,10 +3284,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 1:45 PM</t>
+    <t>Monday, 21 July, 2025 1:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>OCUMETHYL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -413,6 +422,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>17.6000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -437,13 +455,19 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8520:0</t>
+    <t>8519:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
@@ -488,10 +512,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -521,16 +542,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Monday, 21 July, 2025 1:52 PM</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Monday, 21 July, 2025 2:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,7 +2017,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2010,10 +2031,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2293,7 +2314,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2359,7 +2380,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2425,7 +2446,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2491,7 +2512,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2508,7 +2529,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2524,7 +2545,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,20 +2637,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2637,10 +2658,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2649,28 +2670,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2682,31 +2703,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2755,7 +2776,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2831,11 +2852,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2868,10 +2889,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2880,7 +2901,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>47</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2930,11 +2951,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2963,49 +2984,148 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2788.4949999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>173</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>161</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>174</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c t="s" r="Q62" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>175</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>44</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>30</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>176</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>177</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>178</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2947.0949999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>180</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>181</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>182</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3289,10 +3409,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOSTINEX 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>118.5000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -551,7 +560,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 2:02 PM</t>
+    <t>Monday, 21 July, 2025 2:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1762,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,28 +1788,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1812,20 +1821,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1852,7 +1861,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1869,7 +1878,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1885,7 +1894,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1918,7 +1927,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1984,7 +1993,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2017,7 +2026,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,14 +2036,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2083,7 +2092,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,11 +2102,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2149,7 +2158,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,11 +2168,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,7 +2201,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2215,7 +2224,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2281,7 +2290,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2314,7 +2323,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,11 +2333,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2347,7 +2356,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2413,7 +2422,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,11 +2432,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2479,7 +2488,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2562,7 +2571,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2578,7 +2587,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2595,7 +2604,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2611,7 +2620,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,11 +2630,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2743,13 +2752,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2757,10 +2766,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2842,7 +2851,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2875,7 +2884,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,7 +2910,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2941,7 +2950,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2984,11 +2993,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3083,49 +3092,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>179</v>
       </c>
-      <c t="s" r="Q64" s="12">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>180</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>181</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2947.0949999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>180</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>181</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>182</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3065.5949999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>183</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>184</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>185</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3424,10 +3466,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>334.0000</t>
+  </si>
+  <si>
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -449,6 +458,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -494,6 +512,15 @@
     <t>10.00</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 4</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -552,9 +579,6 @@
   </si>
   <si>
     <t>14:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t>48.0000</t>
@@ -1927,7 +1951,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1960,7 +1984,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2026,7 +2050,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2059,7 +2083,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2102,14 +2126,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2125,7 +2149,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,11 +2159,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2191,7 +2215,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2201,11 +2225,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,7 +2258,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2257,7 +2281,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2267,11 +2291,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2283,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2323,7 +2347,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2356,7 +2380,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,11 +2390,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2389,7 +2413,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2455,7 +2479,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,11 +2489,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2521,7 +2545,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2588,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2604,7 +2628,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2620,7 +2644,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2637,7 +2661,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,11 +2687,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2729,11 +2753,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2752,7 +2776,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,14 +2786,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,31 +2802,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2811,31 +2835,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,14 +2885,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,11 +2918,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2910,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,14 +2951,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,14 +2967,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,14 +3000,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2993,11 +3017,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3042,7 +3066,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3059,11 +3083,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>47</v>
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3092,11 +3116,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3125,49 +3149,148 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>185</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>173</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3065.5949999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>183</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>184</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>185</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>187</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>44</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>30</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>188</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>189</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>150</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3773.5949999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>191</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>192</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>193</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3471,10 +3594,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -281,15 +281,6 @@
     <t>32.0000</t>
   </si>
   <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>334.0000</t>
-  </si>
-  <si>
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -584,7 +575,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 2:53 PM</t>
+    <t>Monday, 21 July, 2025 2:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1951,7 +1942,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1984,7 +1975,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2050,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2083,7 +2074,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2093,14 +2084,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2109,14 +2100,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2126,14 +2117,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2149,7 +2140,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2159,11 +2150,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2175,14 +2166,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2192,14 +2183,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2215,7 +2206,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2225,11 +2216,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2241,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2258,7 +2249,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2281,7 +2272,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,11 +2282,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2307,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,14 +2315,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2347,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2348,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2380,7 +2371,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,11 +2381,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2413,7 +2404,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2479,7 +2470,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,11 +2480,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2505,14 +2496,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2545,7 +2536,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2555,14 +2546,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,14 +2579,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2611,7 +2602,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2628,7 +2619,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2644,7 +2635,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2661,7 +2652,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2677,7 +2668,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2710,7 +2701,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,11 +2711,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2736,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2753,14 +2744,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2769,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2786,14 +2777,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2802,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2819,14 +2810,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2842,13 +2833,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2856,10 +2847,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2868,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2885,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2908,7 +2899,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2918,11 +2909,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2934,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2951,11 +2942,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2974,7 +2965,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3007,7 +2998,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3017,14 +3008,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3033,7 +3024,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3050,14 +3041,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>153</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3073,7 +3064,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3083,14 +3074,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3099,14 +3090,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3116,11 +3107,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3132,14 +3123,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3149,14 +3140,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3165,14 +3156,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3182,14 +3173,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3198,14 +3189,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3215,82 +3206,49 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="A68" s="7">
-        <v>62</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c t="s" r="C68" s="8">
+      <c r="P68" s="13">
+        <v>3439.5949999999998</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
         <v>188</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c t="s" r="H68" s="9">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
         <v>189</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c t="s" r="L68" s="10">
-        <v>13</v>
-      </c>
-      <c r="M68" s="10"/>
-      <c t="s" r="N68" s="8">
-        <v>150</v>
-      </c>
-      <c r="O68" s="8"/>
-      <c t="s" r="P68" s="11">
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
         <v>190</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3773.5949999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>191</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>192</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>193</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3604,15 +3562,10 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>350.00</t>
   </si>
   <si>
-    <t>350.0000</t>
+    <t>700.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -575,7 +575,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 2:54 PM</t>
+    <t>Monday, 21 July, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2866,7 +2866,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2883,7 +2883,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3218,7 +3218,7 @@
     </row>
     <row r="68" ht="24.75" customHeight="1">
       <c r="P68" s="13">
-        <v>3439.5949999999998</v>
+        <v>3789.5949999999998</v>
       </c>
       <c r="Q68" s="13"/>
     </row>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -2965,7 +2965,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -3196,7 +3199,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3206,49 +3209,82 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>186</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>187</v>
       </c>
-      <c t="s" r="Q67" s="12">
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>147</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3789.5949999999998</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>188</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3824.5949999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>189</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
         <v>190</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>191</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3562,10 +3598,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -182,6 +194,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -224,9 +245,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>31.6800</t>
   </si>
   <si>
@@ -308,6 +326,18 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -338,9 +368,6 @@
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -515,7 +542,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>92:0</t>
+    <t>91:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>رباط ضغط 6سم</t>
@@ -548,7 +578,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -560,9 +590,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -578,7 +605,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 3:20 PM</t>
+    <t>Monday, 21 July, 2025 3:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1434,7 +1461,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1467,7 +1494,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1500,7 +1527,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1509,14 +1536,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1533,7 +1560,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1582,7 +1609,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1592,14 +1619,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,14 +1635,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1625,7 +1652,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1648,7 +1675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1658,14 +1685,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1691,11 +1718,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1707,14 +1734,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1724,14 +1751,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1740,14 +1767,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1764,7 +1791,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1780,7 +1807,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,14 +1850,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1839,31 +1866,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,11 +1916,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1905,20 +1932,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1929,7 +1956,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1945,7 +1972,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1962,7 +1989,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1978,7 +2005,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2011,7 +2038,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2044,7 +2071,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2120,11 +2147,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,11 +2312,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2407,7 +2434,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2424,7 +2451,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2440,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,11 +2477,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2473,7 +2500,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,11 +2675,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2671,7 +2698,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2688,7 +2715,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2704,7 +2731,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2757,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,7 +2790,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2780,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2796,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2820,7 +2847,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2836,24 +2863,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,31 +2889,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,31 +2922,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2928,14 +2955,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,14 +3038,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,14 +3071,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3060,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3077,11 +3104,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3093,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3110,14 +3137,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3126,7 +3153,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3143,14 +3170,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3159,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3176,11 +3203,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3192,14 +3219,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3209,11 +3236,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3225,14 +3252,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3242,49 +3269,148 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3824.5949999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>189</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>190</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>191</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>193</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>48</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>13</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>30</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>194</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>159</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>13</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>30</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>195</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>196</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>13</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>156</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3895.2750000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>198</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>199</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>200</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3603,10 +3729,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
@@ -378,12 +390,6 @@
   </si>
   <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
   </si>
   <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
@@ -1527,7 +1533,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1560,7 +1566,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1569,14 +1575,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1593,7 +1599,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1602,14 +1608,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1642,7 +1648,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,14 +1658,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1668,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1691,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1707,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1725,7 +1731,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1741,7 +1747,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,11 +1757,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1767,14 +1773,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1790,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1824,7 +1830,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1846,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1856,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1905,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1923,7 +1929,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1945,7 +1951,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1972,21 +1978,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1998,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2021,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2054,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2087,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2097,7 +2103,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2114,11 +2120,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2130,14 +2136,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2154,7 +2160,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2170,7 +2176,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,11 +2285,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,11 +2351,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2427,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2514,7 +2520,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,11 +2549,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2559,7 +2565,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2576,11 +2582,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2592,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,11 +2615,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2681,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2747,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2780,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,11 +2846,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,31 +2961,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2995,7 +3001,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3009,10 +3015,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3120,7 +3126,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3170,14 +3176,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,11 +3242,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3302,14 +3308,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3351,14 +3357,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3368,49 +3374,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>197</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3895.2750000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
         <v>198</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>13</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>158</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>199</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3926.2750000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>200</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>201</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>202</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3744,10 +3783,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -284,15 +284,15 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>526.6800</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>350.00</t>
   </si>
   <si>
-    <t>700.0000</t>
+    <t>350.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -611,7 +611,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 3:25 PM</t>
+    <t>Monday, 21 July, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1978,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2308,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2374,7 +2374,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -3034,7 +3034,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3051,7 +3051,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3419,7 +3419,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>3926.2750000000001</v>
+        <v>3972.2750000000001</v>
       </c>
       <c r="Q73" s="13"/>
     </row>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 3:30 PM</t>
+    <t>Monday, 21 July, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -362,6 +362,9 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -455,6 +458,9 @@
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -611,7 +617,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 4:46 PM</t>
+    <t>Monday, 21 July, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2242,7 +2248,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2256,10 +2262,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2268,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2301,7 +2307,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2322,7 +2328,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2334,7 +2340,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2355,7 +2361,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2367,7 +2373,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2388,7 +2394,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2400,7 +2406,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2433,7 +2439,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2466,7 +2472,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>52</v>
@@ -2499,14 +2505,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,7 +2522,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2532,7 +2538,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2549,11 +2555,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2565,7 +2571,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2582,11 +2588,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2598,7 +2604,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2615,11 +2621,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2631,7 +2637,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2664,7 +2670,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2681,11 +2687,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2697,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2718,10 +2724,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2730,7 +2736,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2747,11 +2753,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2763,7 +2769,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2780,11 +2786,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2796,7 +2802,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2813,11 +2819,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2829,7 +2835,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2862,14 +2868,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,14 +2918,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2928,7 +2934,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2978,11 +2984,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -2994,7 +3000,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3011,7 +3017,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3027,7 +3033,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3044,11 +3050,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3060,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,11 +3083,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>55</v>
@@ -3093,7 +3099,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3110,11 +3116,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3126,7 +3132,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3143,11 +3149,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3159,7 +3165,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3192,7 +3198,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>52</v>
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3258,7 +3264,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3275,7 +3281,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3291,7 +3297,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3308,7 +3314,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3324,7 +3330,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>55</v>
@@ -3419,13 +3425,13 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>3972.2750000000001</v>
+        <v>4034.2750000000001</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c t="s" r="A74" s="14">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3433,13 +3439,13 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c t="s" r="G74" s="15">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
       <c t="s" r="K74" s="17">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 5:22 PM</t>
+    <t>Monday, 21 July, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -77,6 +77,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -269,6 +275,15 @@
     <t>118.5000</t>
   </si>
   <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -290,9 +305,6 @@
     <t>526.6800</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -524,6 +536,9 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
@@ -617,7 +632,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 5:29 PM</t>
+    <t>Monday, 21 July, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1339,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1334,14 +1349,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1367,14 +1382,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1383,14 +1398,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1400,14 +1415,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1416,14 +1431,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1433,14 +1448,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1466,11 +1481,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1515,14 +1530,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1532,11 +1547,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1581,14 +1596,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1598,14 +1613,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1664,11 +1679,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1697,14 +1712,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1720,7 +1735,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1796,11 +1811,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1829,11 +1844,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1862,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1918,7 +1933,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2027,11 +2042,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2043,31 +2058,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2093,14 +2108,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,11 +2141,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,11 +2174,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,11 +2240,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2380,7 +2395,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2413,7 +2428,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,11 +2471,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2512,7 +2527,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,11 +2537,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,11 +2603,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,11 +2669,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2677,7 +2692,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2694,7 +2709,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2710,7 +2725,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2900,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2966,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>174</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3007,24 +3022,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,28 +3048,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3066,31 +3081,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3164,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>163</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,11 +3362,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3413,49 +3428,148 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4034.2750000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>202</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>54</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>32</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>203</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>167</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>13</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>32</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>204</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>205</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>13</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>164</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4326.2749999999996</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>207</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>208</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>209</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3794,10 +3908,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -98,6 +98,9 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
@@ -632,7 +638,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 5:38 PM</t>
+    <t>Monday, 21 July, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1411,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,11 +1421,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1431,7 +1437,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1448,11 +1454,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1481,11 +1487,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1497,14 +1503,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1530,14 +1536,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1547,11 +1553,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1563,14 +1569,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1580,11 +1586,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1596,14 +1602,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1613,11 +1619,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1646,14 +1652,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1662,7 +1668,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1679,11 +1685,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1695,14 +1701,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1712,11 +1718,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1728,7 +1734,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1745,11 +1751,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1761,14 +1767,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,11 +1784,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,11 +1817,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1827,14 +1833,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,11 +1850,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1877,11 +1883,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1893,14 +1899,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,11 +1916,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,11 +1949,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -1959,7 +1965,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1976,11 +1982,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1992,7 +1998,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2009,11 +2015,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,11 +2048,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2058,7 +2064,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2075,11 +2081,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -2091,7 +2097,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2108,11 +2114,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,11 +2147,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2157,7 +2163,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2174,11 +2180,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2190,7 +2196,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2207,11 +2213,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2223,7 +2229,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,11 +2279,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2306,11 +2312,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2322,7 +2328,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2372,11 +2378,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2388,7 +2394,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2421,7 +2427,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2438,11 +2444,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2454,7 +2460,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2471,11 +2477,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2487,14 +2493,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,11 +2510,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2520,7 +2526,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2537,11 +2543,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2652,7 +2658,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2669,11 +2675,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2685,7 +2691,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2702,11 +2708,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2751,7 +2757,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2768,11 +2774,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,11 +2840,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,11 +2873,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2916,7 +2922,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,7 +3021,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3098,11 +3104,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,14 +3203,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3263,11 +3269,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3279,7 +3285,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3312,7 +3318,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3362,11 +3368,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3378,14 +3384,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3545,7 +3551,7 @@
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c t="s" r="A77" s="14">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3553,13 +3559,13 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c t="s" r="G77" s="15">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
       <c t="s" r="K77" s="17">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -638,7 +647,13 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 5:53 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Monday, 21 July, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,13 +2251,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2253,7 +2268,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2269,7 +2284,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2319,7 +2334,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2335,7 +2350,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2401,7 +2416,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2477,11 +2492,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2543,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2576,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2599,7 +2614,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2632,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2642,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2665,7 +2680,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2731,7 +2746,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2741,11 +2756,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2797,7 +2812,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2823,7 +2838,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2863,7 +2878,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2880,7 +2895,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2896,7 +2911,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2913,7 +2928,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2929,7 +2944,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2962,7 +2977,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3071,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3127,13 +3142,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3141,10 +3156,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3193,7 +3208,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3259,7 +3274,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,14 +3317,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,7 +3333,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3358,7 +3373,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3401,11 +3416,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3533,49 +3548,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>209</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>210</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>13</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>169</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4326.2749999999996</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>209</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>210</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>211</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>212</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>213</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>13</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>33</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4400.875</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>214</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>215</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>216</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3929,10 +4010,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:07 PM</t>
+    <t>Monday, 21 July, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -620,9 +629,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -653,7 +659,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:12 PM</t>
+    <t>Monday, 21 July, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1531,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1541,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1551,14 +1557,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1574,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1584,14 +1590,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1601,11 +1607,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1617,14 +1623,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1634,14 +1640,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1650,14 +1656,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,14 +1673,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1683,14 +1689,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,14 +1706,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1723,7 +1729,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1733,11 +1739,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1749,14 +1755,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,14 +1772,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1782,14 +1788,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1805,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1822,7 +1828,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,14 +1838,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,11 +1871,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1881,14 +1887,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,11 +1904,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1914,14 +1920,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1937,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1953,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1964,14 +1970,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1987,7 +1993,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +2003,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2026,7 +2032,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2053,24 +2059,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,20 +2085,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2103,7 +2109,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2119,13 +2125,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2136,7 +2142,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,7 +2158,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2169,7 +2175,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2185,7 +2191,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2218,7 +2224,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2251,13 +2257,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2268,7 +2274,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2284,13 +2290,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2301,7 +2307,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2317,7 +2323,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2327,14 +2333,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2367,7 +2373,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2383,7 +2389,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2409,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2449,7 +2455,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,11 +2465,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2475,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,11 +2531,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,11 +2597,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2630,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2647,7 +2653,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2680,7 +2686,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2713,7 +2719,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2779,7 +2785,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,7 +2851,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2911,7 +2917,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2928,7 +2934,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2944,7 +2950,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2961,7 +2967,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2977,7 +2983,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3010,7 +3016,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,13 +3181,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3189,10 +3195,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3241,7 +3247,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3274,7 +3280,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3307,7 +3313,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,7 +3372,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3383,14 +3389,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>55</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3406,7 +3412,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,14 +3422,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,11 +3455,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3614,49 +3620,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>214</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>215</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>13</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>33</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4400.875</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>214</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>215</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4531.875</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>216</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>217</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>218</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4020,10 +4059,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -581,6 +581,18 @@
     <t>10.00</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -602,12 +614,6 @@
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>زيت حرير 100مل</t>
   </si>
   <si>
@@ -629,6 +635,12 @@
     <t>3.00</t>
   </si>
   <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -654,9 +666,6 @@
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
   </si>
   <si>
     <t>Monday, 21 July, 2025 6:21 PM</t>
@@ -3247,7 +3256,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,11 +3266,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3372,7 +3381,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3554,11 +3563,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3643,7 +3652,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3664,38 +3673,104 @@
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4531.875</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>215</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>216</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>13</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>172</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>217</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c t="s" r="Q79" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>218</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>209</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>13</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>33</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4576.875</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>219</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>220</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>221</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4064,10 +4139,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -356,6 +365,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>HERBANA 30CAPS</t>
   </si>
   <si>
@@ -545,6 +563,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -626,7 +650,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -638,9 +662,6 @@
     <t xml:space="preserve">سكاته حصيره </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -668,7 +689,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:21 PM</t>
+    <t>Monday, 21 July, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1771,7 +1792,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1781,14 +1802,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1797,14 +1818,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,14 +1835,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1830,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1870,7 +1891,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1917,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,11 +1934,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1929,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,11 +1967,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1962,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2033,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2035,7 +2056,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2074,7 +2095,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2101,24 +2122,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2127,20 +2148,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2151,7 +2172,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2167,13 +2188,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2184,7 +2205,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2200,7 +2221,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2217,7 +2238,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2233,7 +2254,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2266,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2299,13 +2320,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2316,7 +2337,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2332,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2365,21 +2386,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2391,14 +2412,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,11 +2429,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2424,14 +2445,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2462,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2474,14 +2495,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2528,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,7 +2577,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2573,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,11 +2627,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2622,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2655,7 +2676,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2672,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2745,7 +2766,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2761,7 +2782,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2792,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2794,7 +2815,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2827,7 +2848,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,11 +2957,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2992,7 +3013,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3009,7 +3030,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3025,7 +3046,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3042,7 +3063,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,7 +3079,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,11 +3089,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3122,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,11 +3155,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3157,7 +3178,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,31 +3237,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,28 +3270,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3282,31 +3303,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,11 +3353,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>61</v>
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,11 +3419,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>175</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,14 +3584,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,14 +3617,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3629,11 +3650,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3695,14 +3716,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3739,38 +3760,137 @@
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4576.875</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>219</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>220</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>221</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>181</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>33</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>222</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>223</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>13</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>178</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>225</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>213</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>13</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>33</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4897.7049999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>226</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>227</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>228</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4149,10 +4269,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
   </si>
   <si>
@@ -522,6 +531,9 @@
   </si>
   <si>
     <t>23.7600</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
@@ -2749,7 +2761,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2766,7 +2778,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2782,7 +2794,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2815,7 +2827,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2848,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2914,7 +2926,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2936,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2980,7 +2992,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,7 +3018,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3063,7 +3075,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3079,7 +3091,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,11 +3167,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3343,24 +3355,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,31 +3381,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,11 +3497,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3508,7 +3520,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3541,7 +3553,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,7 +3579,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3607,7 +3619,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,11 +3695,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3838,7 +3850,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3859,38 +3871,104 @@
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4897.7049999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>226</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
         <v>227</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>13</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>182</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>228</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>229</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>217</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>13</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>33</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5137.7049999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>230</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>231</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>232</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4284,10 +4362,20 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -347,6 +347,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -473,9 +485,6 @@
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -509,6 +518,15 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -569,9 +587,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>26.0000</t>
   </si>
   <si>
@@ -701,7 +716,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:33 PM</t>
+    <t>Monday, 21 July, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2299,7 +2314,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,11 +2357,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,11 +2390,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2391,7 +2406,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2404,18 +2419,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2424,31 +2439,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2481,7 +2496,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2497,7 +2512,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2523,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2589,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,11 +2621,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2672,11 +2687,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2688,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,11 +2720,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,11 +2753,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2804,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2820,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2841,10 +2856,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2893,7 +2908,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2959,7 +2974,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3025,7 +3040,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3051,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3068,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3117,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3150,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,11 +3182,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3190,7 +3205,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3207,7 +3222,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3223,7 +3238,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,11 +3248,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,14 +3281,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,14 +3347,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3348,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3380,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3414,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3454,24 +3469,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,14 +3512,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3612,14 +3627,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,14 +3644,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,10 +3681,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3728,14 +3743,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3744,14 +3759,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3761,11 +3776,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3777,14 +3792,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3794,14 +3809,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3827,11 +3842,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3893,14 +3908,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3909,14 +3924,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3937,38 +3952,104 @@
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5137.7049999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>230</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>231</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>232</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>13</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>188</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>234</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>222</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>13</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>33</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5197.7049999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>235</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>236</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>237</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4372,10 +4453,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -716,7 +716,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:35 PM</t>
+    <t>Monday, 21 July, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -197,6 +197,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -536,6 +542,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -716,7 +731,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:36 PM</t>
+    <t>Monday, 21 July, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1786,7 +1801,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1796,11 +1811,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1862,14 +1877,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1918,7 +1933,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,11 +2009,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,11 +2042,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2093,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2142,7 +2157,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2155,15 +2170,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2175,31 +2190,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,31 +2223,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2241,31 +2256,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,11 +2405,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2406,14 +2421,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2439,7 +2454,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2452,18 +2467,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,31 +2487,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2611,7 +2626,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,7 +2669,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2677,7 +2692,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2710,7 +2725,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,7 +2735,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2743,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,11 +2834,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2908,7 +2923,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2922,7 +2937,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2967,7 +2982,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2984,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3000,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,11 +3032,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3172,7 +3187,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3329,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,31 +3510,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3535,24 +3550,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3747,10 +3762,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3842,11 +3857,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3908,11 +3923,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3924,14 +3939,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4018,38 +4033,104 @@
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5197.7049999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>235</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>236</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>237</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>13</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>193</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>239</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>227</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>13</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>33</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5290.7650000000003</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>240</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>241</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>242</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4463,10 +4544,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -596,6 +596,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -731,7 +740,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:43 PM</t>
+    <t>Monday, 21 July, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3385,7 +3394,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,7 +3404,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3583,13 +3592,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3597,10 +3606,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3630,10 +3639,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3682,7 +3691,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3715,7 +3724,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,7 +3816,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>85</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3960,10 +3969,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4078,7 +4087,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4088,49 +4097,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>242</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>230</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>13</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>33</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5290.7650000000003</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>240</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>241</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>242</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5366.7650000000003</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>243</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>244</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>245</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4554,10 +4596,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -668,6 +668,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بودره اطفال نونو</t>
+  </si>
+  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -686,6 +689,21 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -740,7 +758,28 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:45 PM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Monday, 21 July, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3691,7 +3730,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3701,11 +3740,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3717,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3734,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3790,7 +3829,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3833,14 +3872,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3849,7 +3888,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3866,14 +3905,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,14 +3971,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,14 +3987,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,11 +4004,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3981,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3998,14 +4037,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4014,14 +4053,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,11 +4070,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4047,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4064,14 +4103,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4080,14 +4119,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4097,14 +4136,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4113,14 +4152,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4141,38 +4180,170 @@
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5366.7650000000003</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>243</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>244</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>245</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>246</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>13</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>193</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>248</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>236</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>13</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>33</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>249</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>250</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>13</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>251</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>252</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>253</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>254</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5504.7650000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>256</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>257</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>258</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4601,10 +4772,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:49 PM</t>
+    <t>Monday, 21 July, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 6:50 PM</t>
+    <t>Monday, 21 July, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -434,9 +443,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>117.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -470,6 +476,9 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -554,9 +563,6 @@
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -650,6 +656,9 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t xml:space="preserve">اسبلاش </t>
+  </si>
+  <si>
     <t>ايزي سويت قطعه</t>
   </si>
   <si>
@@ -719,18 +728,24 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سكاته حصيره </t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -779,7 +794,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:19 PM</t>
+    <t>Monday, 21 July, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2392,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2410,7 +2425,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2460,7 +2475,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2476,7 +2491,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2509,7 +2524,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2548,7 +2563,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2559,7 +2574,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2575,13 +2590,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2592,7 +2607,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2608,7 +2623,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2658,7 +2673,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2674,7 +2689,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2748,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,7 +2765,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2773,7 +2788,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2806,7 +2821,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,7 +2831,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2839,7 +2854,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,11 +2864,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,11 +2897,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2938,7 +2953,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2955,7 +2970,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2971,7 +2986,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2985,10 +3000,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,11 +3029,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3037,7 +3052,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3103,7 +3118,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3128,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3169,7 +3184,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,14 +3194,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3235,7 +3250,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,7 +3276,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,14 +3326,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,11 +3425,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,11 +3458,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,11 +3491,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,31 +3672,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3697,7 +3712,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,11 +3722,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,14 +3771,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,11 +3788,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3887,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,14 +3903,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,14 +3920,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3938,14 +3953,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,7 +3969,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,14 +4019,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4052,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,11 +4085,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,11 +4151,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4169,14 +4184,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4202,14 +4217,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4218,14 +4233,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4268,11 +4283,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>61</v>
@@ -4284,14 +4299,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4301,49 +4316,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>254</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>255</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5504.7650000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>256</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>257</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>258</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>13</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>259</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5724.7650000000003</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>261</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>262</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>263</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4792,10 +4873,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -281,12 +290,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -392,6 +395,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -431,6 +443,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -470,6 +491,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -602,6 +632,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>VASCON 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
   </si>
   <si>
@@ -794,7 +833,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:20 PM</t>
+    <t>Monday, 21 July, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1870,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1841,14 +1880,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1890,14 +1929,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1907,7 +1946,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1930,7 +1969,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1947,7 +1986,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1963,7 +2002,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2006,14 +2045,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2062,7 +2101,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2072,14 +2111,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2088,14 +2127,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2105,11 +2144,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2121,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,11 +2177,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2154,14 +2193,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2210,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2187,14 +2226,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2204,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2220,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2237,14 +2276,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2253,7 +2292,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2266,15 +2305,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2286,31 +2325,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2319,31 +2358,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2352,31 +2391,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2418,14 +2457,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2435,11 +2474,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2451,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2468,14 +2507,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2484,14 +2523,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2501,14 +2540,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2556,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,11 +2573,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2550,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2567,11 +2606,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2583,31 +2622,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2616,14 +2655,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2633,11 +2672,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2649,28 +2688,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2682,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,11 +2738,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2715,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,14 +2771,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2755,7 +2794,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2804,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2788,7 +2827,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,14 +2837,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2814,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2854,7 +2893,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,14 +2903,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2936,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2952,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2969,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2985,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,11 +3002,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2979,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3035,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,14 +3051,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,11 +3068,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3052,7 +3091,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3111,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3167,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,11 +3200,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3184,7 +3223,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3233,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3217,7 +3256,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3234,7 +3273,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3250,7 +3289,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3267,7 +3306,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3283,7 +3322,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3316,7 +3355,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3349,7 +3388,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3375,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3408,7 +3447,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3425,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3448,7 +3487,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3465,7 +3504,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3481,7 +3520,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,11 +3530,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3507,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3629,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,14 +3662,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3639,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,11 +3695,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3672,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,31 +3744,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,31 +3777,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,28 +3810,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3804,28 +3843,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3837,31 +3876,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3870,14 +3909,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,14 +3926,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3910,7 +3949,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,14 +3959,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3975,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,11 +3992,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3986,11 +4025,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4002,14 +4041,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4058,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,14 +4091,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,11 +4157,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4134,14 +4173,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,11 +4190,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4167,7 +4206,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4188,10 +4227,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>85</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4233,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4289,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4266,14 +4305,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4283,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4299,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4316,11 +4355,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4332,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4349,14 +4388,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4365,14 +4404,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4382,49 +4421,214 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5724.7650000000003</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>261</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>262</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>214</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>33</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>263</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>264</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>205</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>266</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>257</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>33</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>267</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>268</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>269</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>270</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>271</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>272</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5916.0550000000003</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>274</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>275</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>276</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4883,10 +5087,35 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:26 PM</t>
+    <t>Monday, 21 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:28 PM</t>
+    <t>Monday, 21 July, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -368,168 +368,165 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MACROFURAN 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HEALSEC 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MACROFURAN 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -566,10 +563,10 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>4:6</t>
-  </si>
-  <si>
-    <t>8.0000</t>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
@@ -747,9 +744,6 @@
   </si>
   <si>
     <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
   </si>
   <si>
     <t>رباط ضغط 6سم</t>
@@ -2530,7 +2524,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,14 +2534,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,7 +2550,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2573,11 +2567,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2589,7 +2583,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2606,11 +2600,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2622,7 +2616,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2639,11 +2633,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2655,7 +2649,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2672,11 +2666,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2688,7 +2682,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2705,11 +2699,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2721,7 +2715,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2738,11 +2732,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2754,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2771,11 +2765,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2787,7 +2781,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2804,11 +2798,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2820,7 +2814,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2837,11 +2831,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2853,7 +2847,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2886,14 +2880,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2907,7 +2901,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2919,7 +2913,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2940,7 +2934,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2952,7 +2946,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2969,11 +2963,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2985,7 +2979,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3006,7 +3000,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3018,7 +3012,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3035,11 +3029,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3051,7 +3045,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3084,7 +3078,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3105,7 +3099,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>64</v>
@@ -3117,7 +3111,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3134,11 +3128,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3150,7 +3144,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3167,11 +3161,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>61</v>
@@ -3183,14 +3177,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3216,7 +3210,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3233,11 +3227,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3249,7 +3243,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3266,11 +3260,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3282,7 +3276,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3299,11 +3293,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3315,7 +3309,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3348,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3369,10 +3363,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3381,7 +3375,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3398,11 +3392,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3414,7 +3408,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3431,11 +3425,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3447,7 +3441,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3468,7 +3462,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>64</v>
@@ -3480,7 +3474,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3497,11 +3491,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3513,7 +3507,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3530,11 +3524,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3546,7 +3540,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3563,11 +3557,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3579,7 +3573,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3596,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3612,7 +3606,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3629,11 +3623,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3645,7 +3639,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3662,11 +3656,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3678,7 +3672,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3695,11 +3689,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3711,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,11 +3722,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3744,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3761,11 +3755,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3777,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3810,7 +3804,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3843,7 +3837,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3860,11 +3854,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3876,7 +3870,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3893,11 +3887,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3909,7 +3903,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3926,11 +3920,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3942,7 +3936,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3959,7 +3953,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3975,14 +3969,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,11 +3986,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4008,7 +4002,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4025,11 +4019,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4041,7 +4035,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4058,11 +4052,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4074,14 +4068,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,11 +4085,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>64</v>
@@ -4107,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,14 +4118,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,7 +4134,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4157,11 +4151,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4173,7 +4167,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4190,11 +4184,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4206,7 +4200,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4223,14 +4217,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,7 +4233,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4256,11 +4250,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>88</v>
@@ -4272,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4305,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4326,7 +4320,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4338,7 +4332,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4355,7 +4349,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4371,7 +4365,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4388,11 +4382,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>88</v>
@@ -4404,7 +4398,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4437,14 +4431,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4470,14 +4464,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4487,11 +4481,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>64</v>
@@ -4503,14 +4497,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4536,14 +4530,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4553,11 +4547,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>64</v>
@@ -4569,14 +4563,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4586,11 +4580,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4598,13 +4592,13 @@
     </row>
     <row r="102" ht="25.5" customHeight="1">
       <c r="P102" s="13">
-        <v>5916.0550000000003</v>
+        <v>5946.0550000000003</v>
       </c>
       <c r="Q102" s="13"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c t="s" r="A103" s="14">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4612,13 +4606,13 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c t="s" r="G103" s="15">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="16"/>
       <c t="s" r="K103" s="17">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -827,7 +836,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:34 PM</t>
+    <t>Monday, 21 July, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,7 +2500,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2508,7 +2517,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2538,10 +2547,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2590,7 +2599,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2623,7 +2632,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2656,7 +2665,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2695,7 +2704,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2706,7 +2715,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2722,13 +2731,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2739,7 +2748,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2805,7 +2814,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2821,7 +2830,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2854,7 +2863,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2920,7 +2929,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2930,11 +2939,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2996,11 +3005,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3012,7 +3021,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3052,7 +3061,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3151,7 +3160,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3168,7 +3177,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3184,7 +3193,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3217,7 +3226,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3227,11 +3236,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3250,7 +3259,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3316,7 +3325,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3326,11 +3335,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3448,7 +3457,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3474,7 +3483,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3514,7 +3523,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3580,7 +3589,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3597,7 +3606,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3613,7 +3622,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3663,7 +3672,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3696,7 +3705,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3712,7 +3721,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,7 +3731,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,11 +3863,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3910,24 +3919,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3990,10 +3999,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,11 +4028,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4075,7 +4084,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>185</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,11 +4193,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>88</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4316,11 +4325,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4386,10 +4395,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4504,7 +4513,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4584,45 +4593,78 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>271</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5946.0550000000003</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>272</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>273</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>274</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5959.5550000000003</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>275</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>276</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>277</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5106,10 +5148,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -284,6 +284,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -836,7 +842,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:35 PM</t>
+    <t>Monday, 21 July, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,7 +2242,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2246,11 +2252,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2328,7 +2334,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2341,15 +2347,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2361,31 +2367,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2394,31 +2400,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2427,31 +2433,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2510,14 +2516,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2599,7 +2605,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2613,10 +2619,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,11 +2648,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2658,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2675,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2691,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2708,11 +2714,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2724,7 +2730,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2737,18 +2743,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2757,31 +2763,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2807,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,11 +2879,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,7 +2978,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2995,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3028,7 +3034,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,7 +3044,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3104,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3160,7 +3166,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3273,7 +3279,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3302,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3318,7 +3324,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3335,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3351,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,11 +3374,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3384,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,14 +3407,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3417,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,7 +3456,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3467,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3483,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,7 +3522,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3533,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3681,7 +3687,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3830,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3846,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3945,31 +3951,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4018,7 +4024,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,14 +4034,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,11 +4067,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,11 +4100,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,14 +4166,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>188</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,11 +4232,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4242,7 +4248,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4259,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,7 +4281,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>88</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4315,7 +4321,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4348,7 +4354,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4506,14 +4512,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4539,14 +4545,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4556,14 +4562,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4572,14 +4578,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4589,14 +4595,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4605,14 +4611,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4622,49 +4628,82 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>273</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>274</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5959.5550000000003</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
         <v>275</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>276</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5994.5550000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
         <v>277</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>278</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>279</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5153,10 +5192,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DAPABLIX 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -344,6 +362,12 @@
     <t>526.6800</t>
   </si>
   <si>
+    <t>ERALONER 25 MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -482,6 +506,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 50MG 30 CAPS</t>
   </si>
   <si>
@@ -527,6 +560,9 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
   </si>
   <si>
@@ -626,6 +662,9 @@
     <t>17.6000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -806,6 +845,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -842,7 +887,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:37 PM</t>
+    <t>Monday, 21 July, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1891,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1856,11 +1901,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1872,14 +1917,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1912,7 +1957,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1922,14 +1967,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1938,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1955,14 +2000,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1971,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1988,7 +2033,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2011,7 +2056,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2028,7 +2073,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2044,7 +2089,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2070,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,7 +2132,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2110,7 +2155,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2120,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2136,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,11 +2198,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2169,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2202,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,11 +2264,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2235,7 +2280,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2252,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2285,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2363,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2396,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2374,24 +2419,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2407,7 +2452,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2433,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2450,14 +2495,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2512,7 +2557,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2523,7 +2568,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2549,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2565,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2638,7 +2683,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2655,7 +2700,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,7 +2716,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2704,7 +2749,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2718,10 +2763,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2747,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2763,31 +2808,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,11 +2858,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2829,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,31 +2907,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2928,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3225,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,11 +3320,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3298,7 +3343,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,11 +3386,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3357,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3753,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3786,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,14 +3848,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3852,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3918,7 +3963,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3935,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,28 +4029,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4024,24 +4069,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4063,7 +4108,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4074,7 +4119,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,7 +4128,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4096,15 +4141,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4116,28 +4161,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4149,31 +4194,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,11 +4310,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4281,7 +4326,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4298,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,14 +4409,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,14 +4442,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,11 +4475,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4446,7 +4491,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4463,14 +4508,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4479,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,14 +4541,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4545,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4562,14 +4607,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4578,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4595,11 +4640,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4611,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4628,14 +4673,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4644,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4661,49 +4706,280 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5994.5550000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>277</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>64</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>33</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>278</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
         <v>279</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>189</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>280</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>231</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>33</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>281</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>282</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>13</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>222</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>284</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>273</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>33</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>285</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>286</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>287</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>288</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>289</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>290</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6293.1850000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>292</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>293</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>294</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5197,10 +5473,45 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -563,6 +563,15 @@
     <t>NEBILET 5MG 14 TAB.</t>
   </si>
   <si>
+    <t>NEUROTON 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
   </si>
   <si>
@@ -611,6 +620,12 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -734,6 +749,9 @@
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
@@ -887,7 +905,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:51 PM</t>
+    <t>Monday, 21 July, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3442,7 +3460,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3459,7 +3477,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3475,7 +3493,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3508,7 +3526,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,11 +3536,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3541,7 +3559,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3607,7 +3625,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,11 +3635,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3633,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3673,7 +3691,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,11 +3701,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3699,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3800,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3798,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3831,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,11 +4031,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4112,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,28 +4245,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4260,31 +4278,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4300,24 +4318,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4359,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4443,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4491,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4526,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,14 +4559,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,14 +4592,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4623,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,14 +4658,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,14 +4691,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4755,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,11 +4790,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4788,14 +4806,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,14 +4823,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4821,14 +4839,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,14 +4856,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4861,7 +4879,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4871,11 +4889,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4887,14 +4905,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4904,14 +4922,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4920,14 +4938,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4937,49 +4955,148 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>290</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>279</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>33</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>291</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6293.1850000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>292</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>293</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>294</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>295</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>296</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6594.3850000000002</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>298</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>299</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>300</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5508,10 +5625,25 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -707,6 +707,12 @@
     <t>23.5000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
   </si>
   <si>
@@ -905,7 +911,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:53 PM</t>
+    <t>Monday, 21 July, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4087,7 +4093,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>244</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,7 +4251,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,31 +4350,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4417,7 +4423,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>64</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>207</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4641,7 +4647,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,7 +4680,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>94</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4714,7 +4720,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4747,7 +4753,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,11 +4796,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4889,11 +4895,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4912,7 +4918,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4922,11 +4928,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4955,14 +4961,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5054,49 +5060,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>296</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>297</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6594.3850000000002</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
         <v>298</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>299</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6612.3850000000002</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>300</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>301</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>302</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5640,10 +5679,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -146,6 +158,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -212,9 +236,6 @@
     <t>88.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -239,6 +260,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -428,6 +458,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7.70</t>
+  </si>
+  <si>
+    <t>7.7000</t>
+  </si>
+  <si>
     <t>HEALSEC 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -545,6 +584,9 @@
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -752,6 +794,15 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -839,12 +890,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -911,7 +956,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 7:54 PM</t>
+    <t>Monday, 21 July, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1628,14 +1673,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1644,14 +1689,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1661,14 +1706,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1684,7 +1729,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1694,14 +1739,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1717,7 +1762,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1727,14 +1772,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1743,14 +1788,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1760,14 +1805,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1776,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1793,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1809,14 +1854,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1833,7 +1878,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1866,7 +1911,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1899,7 +1944,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1915,7 +1960,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1925,14 +1970,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1941,14 +1986,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1958,14 +2003,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1974,14 +2019,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1991,11 +2036,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -2007,14 +2052,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2024,14 +2069,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2047,7 +2092,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2057,11 +2102,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2073,14 +2118,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2090,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2106,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2123,11 +2168,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2139,14 +2184,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2156,14 +2201,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2172,14 +2217,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2212,7 +2257,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2222,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2238,14 +2283,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2255,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2271,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2288,14 +2333,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2304,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,11 +2366,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2337,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2370,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2403,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2436,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2453,14 +2498,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2469,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,31 +2547,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,14 +2580,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,14 +2597,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2575,13 +2620,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2592,7 +2637,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2608,24 +2653,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2651,11 +2696,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2667,7 +2712,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2680,18 +2725,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,7 +2745,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2717,11 +2762,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2733,14 +2778,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2766,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2799,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,11 +2894,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2865,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2882,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2898,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,11 +2960,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2931,31 +2976,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2981,11 +3026,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2997,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3021,7 +3066,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3037,7 +3082,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3070,13 +3115,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3087,7 +3132,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3103,7 +3148,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3113,14 +3158,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3129,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,11 +3191,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3162,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,11 +3224,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3195,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3212,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3294,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,14 +3372,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,11 +3455,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3426,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,11 +3488,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3459,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,11 +3521,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3492,31 +3537,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,11 +3620,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3591,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,11 +3686,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3657,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3690,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3822,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,11 +3917,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3888,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3921,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3954,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,11 +4016,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3987,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4086,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4119,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4159,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,7 +4214,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4192,7 +4237,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4242,7 +4287,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4301,11 +4346,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4317,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,11 +4379,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4350,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,11 +4412,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4383,31 +4428,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,31 +4461,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,28 +4494,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4482,7 +4527,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4495,15 +4540,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4515,28 +4560,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4548,31 +4593,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4621,7 +4666,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4709,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4680,7 +4725,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4697,14 +4742,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4720,7 +4765,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4734,10 +4779,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4779,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,14 +4841,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4812,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4845,7 +4890,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4862,14 +4907,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4911,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,11 +5006,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4977,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4994,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5010,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5027,11 +5072,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5043,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5060,14 +5105,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5076,14 +5121,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5093,49 +5138,247 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6612.3850000000002</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>300</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>301</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>302</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>206</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>303</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>252</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>37</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>304</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>305</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>241</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>307</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>296</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>37</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>308</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>309</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>310</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>311</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>312</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>313</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6923.5249999999996</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>315</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>316</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>317</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5684,10 +5927,40 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -194,15 +194,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
@@ -956,7 +947,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:00 PM</t>
+    <t>Monday, 21 July, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2017,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,11 +2027,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -2052,14 +2043,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2092,7 +2083,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,14 +2093,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2118,14 +2109,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2135,14 +2126,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2151,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,7 +2159,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2224,7 +2215,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2257,7 +2248,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2274,7 +2265,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2290,7 +2281,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,14 +2291,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2316,14 +2307,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,14 +2324,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2349,14 +2340,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2366,14 +2357,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2389,7 +2380,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,14 +2390,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2415,14 +2406,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,11 +2423,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2448,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,11 +2456,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2481,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2502,10 +2493,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,11 +2522,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2547,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2587,7 +2578,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2626,7 +2617,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2653,24 +2644,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,20 +2670,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2703,7 +2694,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2719,24 +2710,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2745,7 +2736,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2762,7 +2753,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2785,7 +2776,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2802,7 +2793,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2818,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2835,7 +2826,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2851,7 +2842,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2868,7 +2859,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2884,7 +2875,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2898,10 +2889,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2910,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2950,7 +2941,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2983,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3049,7 +3040,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3088,7 +3079,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3099,7 +3090,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3115,13 +3106,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3132,7 +3123,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3148,7 +3139,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3198,7 +3189,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3214,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3247,7 +3238,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3313,7 +3304,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3314,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3346,7 +3337,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3347,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3405,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3438,7 +3429,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3455,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3478,7 +3469,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3479,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,31 +3495,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,31 +3528,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3620,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3676,7 +3667,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3693,7 +3684,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,7 +3700,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,7 +3733,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3775,7 +3766,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3841,7 +3832,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3867,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>218</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3940,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4006,7 +3997,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,7 +4063,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4138,7 +4129,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4204,7 +4195,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4254,7 +4245,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,7 +4261,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4296,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4336,7 +4327,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,7 +4337,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4379,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>260</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4468,7 +4459,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>97</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,7 +4485,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4511,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4527,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4560,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4600,24 +4591,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,14 +4650,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4680,10 +4671,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,11 +4700,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4725,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,11 +4733,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4765,7 +4756,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4808,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4865,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4907,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,7 +4914,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4940,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>58</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4956,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,14 +4964,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4989,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,11 +4997,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5022,14 +5013,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,11 +5030,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5055,14 +5046,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5076,10 +5067,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,14 +5096,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,14 +5112,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,11 +5129,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5154,14 +5145,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5171,11 +5162,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5187,14 +5178,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5204,14 +5195,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5227,7 +5218,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5237,14 +5228,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5253,14 +5244,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5270,14 +5261,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5307,78 +5298,45 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="A120" s="7">
-        <v>114</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c t="s" r="C120" s="8">
-        <v>311</v>
-      </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c t="s" r="H120" s="9">
+      <c r="P120" s="13">
+        <v>6874.0249999999996</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>312</v>
       </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c t="s" r="L120" s="10">
-        <v>13</v>
-      </c>
-      <c r="M120" s="10"/>
-      <c t="s" r="N120" s="8">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
         <v>313</v>
       </c>
-      <c r="O120" s="8"/>
-      <c t="s" r="P120" s="11">
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
         <v>314</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6923.5249999999996</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>315</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>316</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>317</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5952,15 +5910,10 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -947,7 +947,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:18 PM</t>
+    <t>Monday, 21 July, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -947,7 +947,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:20 PM</t>
+    <t>Monday, 21 July, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -233,6 +242,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -479,9 +497,6 @@
     <t>HERBANA 30CAPS</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>39.6000</t>
   </si>
   <si>
@@ -687,6 +702,9 @@
   </si>
   <si>
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
     <t>ROWATINEX 45 CAPSULES</t>
@@ -2056,7 +2074,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2067,7 +2085,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2083,7 +2101,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2159,7 +2177,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2182,7 +2200,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2199,7 +2217,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2215,7 +2233,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2248,7 +2266,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2265,7 +2283,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2281,7 +2299,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,11 +2309,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2324,7 +2342,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2347,7 +2365,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,11 +2474,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2611,24 +2629,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2644,7 +2662,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2736,31 +2754,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2875,7 +2893,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2889,10 +2907,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2974,7 +2992,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3007,7 +3025,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3040,7 +3058,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3073,13 +3091,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3090,7 +3108,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3106,7 +3124,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3139,21 +3157,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3165,7 +3183,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3297,7 +3315,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,7 +3365,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3370,7 +3388,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3396,7 +3414,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3469,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3479,11 +3497,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3495,28 +3513,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3561,31 +3579,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3601,7 +3619,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,11 +3662,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3726,7 +3744,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3780,7 +3798,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3858,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3931,7 +3949,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4155,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,11 +4256,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4254,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,11 +4322,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4320,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>141</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,28 +4602,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4617,31 +4635,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4657,24 +4675,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4716,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>58</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4954,7 +4972,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5079,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5112,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5145,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5178,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5195,14 +5213,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5218,7 +5236,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5228,11 +5246,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5244,14 +5262,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5261,14 +5279,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5277,14 +5295,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5294,49 +5312,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>310</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>299</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>37</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>311</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6874.0249999999996</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>312</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>313</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>314</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>315</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>316</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7375.0249999999996</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>318</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>319</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>320</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5910,10 +6027,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -509,6 +509,9 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -965,7 +968,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:23 PM</t>
+    <t>Monday, 21 July, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3223,24 +3226,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3269,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3315,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3335,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3355,7 +3358,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3368,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3384,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,14 +3401,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3513,7 +3516,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3530,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3586,24 +3589,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3619,24 +3622,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3665,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,7 +3681,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3695,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3718,7 +3721,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3764,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3780,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3797,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,11 +3830,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3843,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,11 +3863,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3876,7 +3879,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3893,11 +3896,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3909,14 +3912,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,11 +3929,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3949,7 +3952,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +3962,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,14 +4011,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4028,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,7 +4044,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4058,11 +4061,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4074,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4114,7 +4117,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4147,7 +4150,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4160,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4193,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4213,7 +4216,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,7 +4242,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4256,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4279,7 +4282,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,11 +4325,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4338,7 +4341,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4355,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4404,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4470,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,14 +4506,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>263</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4539,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4556,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>72</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4619,11 +4622,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4642,7 +4645,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4655,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4675,7 +4678,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4688,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,31 +4704,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4741,7 +4744,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4754,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4770,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4787,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4803,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,11 +4820,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4840,7 +4843,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,11 +4853,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4866,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4919,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4952,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4972,7 +4975,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,7 +5001,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5015,14 +5018,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5048,14 +5051,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>255</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5084,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,14 +5100,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5117,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5137,7 +5140,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5150,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5170,7 +5173,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,14 +5183,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5203,7 +5206,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5216,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5236,7 +5239,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,11 +5249,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5262,14 +5265,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5282,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5302,7 +5305,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5315,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5331,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,14 +5348,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5368,7 +5371,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,14 +5381,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5394,14 +5397,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5411,49 +5414,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>315</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>316</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>317</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7375.0249999999996</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>318</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7495.0249999999996</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>319</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>320</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>321</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6042,10 +6078,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -158,15 +158,33 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>26.7300</t>
   </si>
   <si>
@@ -434,6 +452,18 @@
     <t>13.5000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -500,6 +530,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -707,6 +746,21 @@
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>21.1200</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -746,9 +800,6 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -968,7 +1019,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:24 PM</t>
+    <t>Monday, 21 July, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1956,7 +2007,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1972,7 +2023,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,14 +2033,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1998,14 +2049,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,14 +2066,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2031,14 +2082,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,14 +2099,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2064,28 +2115,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2097,14 +2148,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2137,24 +2188,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2163,14 +2214,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2180,7 +2231,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2203,7 +2254,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2213,14 +2264,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2229,14 +2280,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,7 +2297,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2269,7 +2320,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2286,7 +2337,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2302,7 +2353,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2335,7 +2386,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2352,7 +2403,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2368,7 +2419,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,11 +2429,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2394,14 +2445,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,7 +2462,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2434,7 +2485,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,11 +2495,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2460,14 +2511,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,11 +2528,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2493,14 +2544,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2561,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2577,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,11 +2594,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2559,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,14 +2627,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2609,14 +2660,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2676,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2693,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2658,14 +2709,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2726,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2698,24 +2749,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2731,7 +2782,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2741,14 +2792,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2808,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2825,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2841,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,11 +2858,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2823,31 +2874,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,14 +2907,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,14 +2924,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2929,7 +2980,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2962,7 +3013,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2976,10 +3027,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,14 +3039,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,14 +3056,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3021,14 +3072,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,11 +3089,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3054,14 +3105,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3122,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3138,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,11 +3155,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3120,14 +3171,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,11 +3188,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3153,31 +3204,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3186,14 +3237,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,11 +3254,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3219,28 +3270,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3252,28 +3303,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3285,7 +3336,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3302,14 +3353,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,14 +3369,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,11 +3386,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3351,7 +3402,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3364,18 +3415,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3384,14 +3435,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,11 +3452,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3417,14 +3468,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,11 +3485,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3450,14 +3501,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3518,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,14 +3534,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,14 +3551,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3516,14 +3567,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3584,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,14 +3600,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3617,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,14 +3633,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,14 +3650,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,31 +3666,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3648,14 +3699,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,14 +3716,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,14 +3732,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,14 +3749,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,14 +3765,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3782,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,31 +3798,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,14 +3831,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,14 +3848,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3864,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,11 +3881,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3846,14 +3897,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3914,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3930,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,11 +3947,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3912,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3980,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,14 +3996,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3978,14 +4029,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,14 +4046,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4011,14 +4062,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,14 +4079,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,14 +4095,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,14 +4112,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4128,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4145,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,14 +4161,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4178,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4194,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4211,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4176,14 +4227,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,11 +4244,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4209,14 +4260,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,14 +4277,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4242,14 +4293,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4310,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4326,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4343,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,14 +4359,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,11 +4376,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4341,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,14 +4409,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,14 +4425,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4442,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4458,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4475,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,14 +4491,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,14 +4524,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,11 +4541,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4506,14 +4557,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4574,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,14 +4590,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4607,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>264</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,14 +4623,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,14 +4640,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,7 +4656,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4622,11 +4673,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4638,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,11 +4706,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4671,14 +4722,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4739,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4755,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,14 +4772,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,31 +4788,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,31 +4821,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,28 +4854,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4836,28 +4887,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4869,31 +4920,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4902,14 +4953,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4919,14 +4970,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,14 +4986,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,14 +5003,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>224</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,14 +5019,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,11 +5036,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5001,7 +5052,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5018,11 +5069,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5034,14 +5085,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5067,14 +5118,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,14 +5135,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>256</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5100,14 +5151,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5117,14 +5168,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5133,14 +5184,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5150,11 +5201,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5166,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5183,11 +5234,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5199,7 +5250,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5220,10 +5271,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5232,14 +5283,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5249,14 +5300,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5265,14 +5316,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5282,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5298,14 +5349,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5315,11 +5366,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5331,14 +5382,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5348,14 +5399,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5364,14 +5415,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5381,14 +5432,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5397,14 +5448,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5414,14 +5465,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5430,14 +5481,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5447,49 +5498,214 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7495.0249999999996</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>319</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>320</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>321</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>324</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>273</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>37</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>325</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>326</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>149</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>328</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>317</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>37</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>329</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>330</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>331</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>332</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>333</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>334</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7702.9449999999997</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>336</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>337</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>338</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6083,10 +6299,35 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -749,16 +749,13 @@
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
-    <t>1:19</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
-    <t>21.1200</t>
-  </si>
-  <si>
-    <t>0:16</t>
+    <t>40.9200</t>
+  </si>
+  <si>
+    <t>0:31</t>
   </si>
   <si>
     <t>REGIMAX 120MG 30 CAPS</t>
@@ -4333,7 +4330,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>248</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>249</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,7 +4356,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4409,11 +4406,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4425,7 +4422,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4458,7 +4455,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4475,11 +4472,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>31</v>
@@ -4491,7 +4488,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4524,7 +4521,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4541,11 +4538,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4557,7 +4554,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4578,7 +4575,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4590,7 +4587,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4607,11 +4604,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4623,7 +4620,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4644,7 +4641,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4656,7 +4653,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4673,11 +4670,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4689,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4710,7 +4707,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4722,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4755,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4772,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>280</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4788,7 +4785,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4805,11 +4802,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>78</v>
@@ -4821,7 +4818,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4854,7 +4851,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4887,7 +4884,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4920,7 +4917,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4937,11 +4934,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4953,7 +4950,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4986,7 +4983,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5003,7 +5000,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5019,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5036,11 +5033,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5052,7 +5049,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5085,7 +5082,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5102,11 +5099,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5118,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5139,7 +5136,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5151,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5168,11 +5165,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>237</v>
@@ -5184,7 +5181,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5201,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5217,7 +5214,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5234,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5250,7 +5247,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5267,7 +5264,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5283,7 +5280,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5300,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5316,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,11 +5330,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5349,7 +5346,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5382,7 +5379,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5415,7 +5412,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5432,7 +5429,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5448,7 +5445,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5481,14 +5478,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5514,14 +5511,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5547,14 +5544,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5568,7 +5565,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
@@ -5580,14 +5577,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5613,14 +5610,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5630,7 +5627,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5646,14 +5643,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5663,11 +5660,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5675,13 +5672,13 @@
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="P129" s="13">
-        <v>7702.9449999999997</v>
+        <v>7722.7449999999999</v>
       </c>
       <c r="Q129" s="13"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c t="s" r="A130" s="14">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5689,13 +5686,13 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c t="s" r="G130" s="15">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="16"/>
       <c t="s" r="K130" s="17">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:32 PM</t>
+    <t>Monday, 21 July, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -608,6 +608,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>MESOCEPT 50/5MG I.M. AMP</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -806,9 +815,6 @@
     <t>47.00</t>
   </si>
   <si>
-    <t>23.5000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -923,6 +929,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حجر </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -950,6 +962,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -965,6 +983,12 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش كعب </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -974,12 +998,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -1016,7 +1040,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:44 PM</t>
+    <t>Monday, 21 July, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3670,7 +3694,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,11 +3704,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3696,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,11 +3737,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3729,7 +3753,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3746,14 +3770,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3769,7 +3793,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3795,31 +3819,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3828,31 +3852,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3911,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3967,7 +3991,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3984,7 +4008,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4000,7 +4024,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4033,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,11 +4067,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4066,7 +4090,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4132,7 +4156,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>237</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4231,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4265,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4297,7 +4321,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4331,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>248</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4429,7 +4453,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,14 +4463,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4455,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4505,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4561,7 +4585,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,11 +4595,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4587,7 +4611,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4604,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4627,7 +4651,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,11 +4661,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4660,7 +4684,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,11 +4727,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4719,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4769,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>280</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>78</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,7 +4875,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4868,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4884,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,11 +4925,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4917,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,31 +4974,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5023,7 +5047,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,11 +5090,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5082,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,11 +5123,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5115,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>237</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5205,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,11 +5222,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5214,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5238,7 +5262,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5254,7 +5278,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,10 +5325,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5354,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5387,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,11 +5420,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5412,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5478,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5511,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5528,14 +5552,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5561,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
@@ -5577,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5594,11 +5618,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5610,14 +5634,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5627,14 +5651,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5643,14 +5667,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5660,49 +5684,148 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
         <v>334</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7722.7449999999999</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>335</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>322</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>37</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>336</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
         <v>337</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>338</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>339</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>340</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>341</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7818.2449999999999</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>343</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>344</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>345</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6321,10 +6444,25 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:54 PM</t>
+    <t>Monday, 21 July, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -959,6 +959,9 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>زيت دابر املا 90 مل</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -987,6 +990,12 @@
   </si>
   <si>
     <t>25.00</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>قطن 50جم</t>
@@ -5354,14 +5363,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,7 +5379,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,14 +5412,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,14 +5429,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5436,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5462,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5476,7 +5485,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5495,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5502,7 +5511,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5519,11 +5528,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5542,7 +5551,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,14 +5561,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,7 +5577,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5585,14 +5594,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5608,7 +5617,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,14 +5627,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5641,7 +5650,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5655,10 +5664,10 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5667,14 +5676,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5684,14 +5693,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5700,14 +5709,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5733,14 +5742,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5750,11 +5759,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>23</v>
@@ -5766,14 +5775,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5783,49 +5792,115 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>339</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>340</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>341</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>342</v>
       </c>
-      <c t="s" r="Q131" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7818.2449999999999</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
         <v>343</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
         <v>344</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>345</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7883.2449999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>346</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>347</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>348</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6459,10 +6534,20 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -389,6 +389,15 @@
     <t>118.5000</t>
   </si>
   <si>
+    <t>DUCARBOFEL 30 CAPS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -428,9 +437,6 @@
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>24.7500</t>
   </si>
   <si>
@@ -734,6 +740,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -806,9 +818,6 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>VASCON 5MG 20 TAB.</t>
   </si>
   <si>
@@ -1049,7 +1058,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 8:55 PM</t>
+    <t>Monday, 21 July, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2851,7 +2860,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2878,24 +2887,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2904,20 +2913,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2928,7 +2937,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2944,24 +2953,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,7 +2979,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2987,7 +2996,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3010,7 +3019,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3086,11 +3095,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3175,7 +3184,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3189,10 +3198,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,11 +3227,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3267,7 +3276,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3284,11 +3293,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,11 +3326,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3333,7 +3342,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3346,18 +3355,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3373,21 +3382,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3399,7 +3408,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3432,28 +3441,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3465,31 +3474,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3703,7 +3712,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,7 +3755,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3769,7 +3778,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,7 +3788,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,31 +3870,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3894,31 +3903,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3934,7 +3943,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,7 +3969,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4113,7 +4122,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4158,7 +4167,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4175,11 +4184,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4264,7 +4273,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>240</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4396,7 +4405,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4413,7 +4422,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>251</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4495,7 +4504,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4528,7 +4537,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4545,7 +4554,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4561,7 +4570,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4594,7 +4603,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4611,7 +4620,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4627,7 +4636,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4693,7 +4702,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5016,7 +5025,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5029,15 +5038,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5049,31 +5058,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5089,7 +5098,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,11 +5108,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5115,14 +5124,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5141,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5273,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>240</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5301,7 +5310,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5313,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5330,14 +5339,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5363,11 +5372,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5379,7 +5388,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5396,14 +5405,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>319</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,7 +5421,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5429,14 +5438,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5478,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5495,14 +5504,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5518,7 +5527,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,11 +5537,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5551,7 +5560,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>226</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,11 +5570,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5577,7 +5586,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5594,11 +5603,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5617,7 +5626,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,14 +5636,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5643,7 +5652,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5660,14 +5669,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5683,7 +5692,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5693,14 +5702,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5716,7 +5725,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5730,10 +5739,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5742,14 +5751,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5759,14 +5768,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5775,14 +5784,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5808,14 +5817,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5825,11 +5834,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>183</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>23</v>
@@ -5841,14 +5850,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5858,49 +5867,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>342</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>343</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>344</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>345</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7883.2449999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
         <v>346</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
         <v>347</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>348</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7982.2449999999999</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>349</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>350</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>351</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6544,10 +6619,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -62,15 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADVANCRIB 400 MG 5 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -140,12 +149,6 @@
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -158,6 +161,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BEDORA TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -170,6 +182,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>BLOCKADIPINE 20 MG 10 F.C. TABS</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>38.5000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -446,150 +467,162 @@
     <t>117.00</t>
   </si>
   <si>
+    <t>155.6100</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7.70</t>
+  </si>
+  <si>
+    <t>7.7000</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>117.0000</t>
   </si>
   <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HAEMOKION 10MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7.70</t>
-  </si>
-  <si>
-    <t>7.7000</t>
-  </si>
-  <si>
-    <t>HEALSEC 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -722,6 +755,12 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -965,9 +1004,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>زيت دابر املا 90 مل</t>
   </si>
   <si>
@@ -1058,7 +1094,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:03 PM</t>
+    <t>Monday, 21 July, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,21 +1768,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1758,31 +1794,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1791,31 +1827,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1824,31 +1860,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1857,31 +1893,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1890,20 +1926,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1914,7 +1950,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1930,24 +1966,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1963,24 +1999,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1996,24 +2032,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2022,31 +2058,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2055,31 +2091,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2088,31 +2124,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2154,31 +2190,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2187,31 +2223,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2220,28 +2256,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2253,31 +2289,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2286,31 +2322,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2319,31 +2355,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2352,31 +2388,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2385,31 +2421,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2418,31 +2454,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2451,31 +2487,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2484,31 +2520,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2517,31 +2553,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2550,31 +2586,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2583,31 +2619,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2616,31 +2652,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2649,28 +2685,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2682,31 +2718,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2715,31 +2751,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2755,24 +2791,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2781,31 +2817,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2821,13 +2857,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2835,10 +2871,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2847,31 +2883,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2880,31 +2916,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2913,31 +2949,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2946,31 +2982,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2979,31 +3015,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,31 +3048,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3052,13 +3088,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3069,7 +3105,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3091,18 +3127,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3111,31 +3147,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3144,31 +3180,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3177,31 +3213,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3210,31 +3246,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3243,28 +3279,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3276,31 +3312,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3309,28 +3345,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3342,31 +3378,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3375,31 +3411,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3408,31 +3444,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,28 +3477,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3474,28 +3510,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3507,31 +3543,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3540,7 +3576,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3553,18 +3589,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3573,28 +3609,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3606,7 +3642,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3619,18 +3655,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3639,31 +3675,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3679,13 +3715,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3712,24 +3748,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,7 +3774,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3751,18 +3787,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3778,24 +3814,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,28 +3840,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3837,31 +3873,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,28 +3906,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3903,31 +3939,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,31 +3972,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,31 +4005,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,31 +4038,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4035,31 +4071,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4068,31 +4104,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,20 +4137,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4122,7 +4158,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4134,31 +4170,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4167,28 +4203,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4200,31 +4236,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,28 +4269,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4266,31 +4302,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4299,31 +4335,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,28 +4368,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4365,31 +4401,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4398,31 +4434,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4438,24 +4474,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,28 +4500,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>255</v>
@@ -4504,21 +4540,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4530,31 +4566,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4563,31 +4599,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4596,31 +4632,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,31 +4665,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4662,28 +4698,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4695,31 +4731,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,31 +4764,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,31 +4797,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,31 +4830,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,28 +4863,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4860,31 +4896,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4893,20 +4929,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4914,10 +4950,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>285</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,31 +4962,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4959,7 +4995,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4972,15 +5008,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4992,28 +5028,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5025,31 +5061,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5058,31 +5094,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,31 +5127,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,31 +5160,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,28 +5193,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5190,28 +5226,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5223,31 +5259,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5309,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5296,7 +5332,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,7 +5382,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5362,7 +5398,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,11 +5408,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5395,7 +5431,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5428,7 +5464,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,14 +5474,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,14 +5490,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,14 +5507,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>322</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,14 +5556,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5573,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5553,14 +5589,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5606,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5586,14 +5622,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,11 +5639,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5619,14 +5655,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5672,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5688,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5705,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,14 +5721,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,14 +5738,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5718,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,14 +5771,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5751,14 +5787,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,11 +5804,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5784,14 +5820,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5801,11 +5837,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5817,14 +5853,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>339</v>
+        <v>26</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5834,14 +5870,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5850,14 +5886,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5867,14 +5903,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5883,14 +5919,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5900,14 +5936,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5916,14 +5952,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5933,49 +5969,214 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7982.2449999999999</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>349</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>290</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>40</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>350</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
         <v>351</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>158</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>352</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>353</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>338</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>40</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>354</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>355</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>356</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>357</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>358</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>359</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>8318.5849999999991</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>361</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>362</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>363</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6629,10 +6830,35 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-21_00-00.xlsx
+++ b/DaySale_2025-07-21_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>86.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>86.0000</t>
   </si>
   <si>
     <t>CETAFEN PLUS 30 TAB.</t>
@@ -566,6 +566,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -590,225 +599,228 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>MESOCEPT 50/5MG I.M. AMP</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>NEUROTON 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>MESOCEPT 50/5MG I.M. AMP</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>NEBILET 5MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>NEUROTON 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:5</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -1010,10 +1022,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1040,9 +1052,6 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
-    <t>27:0</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -1094,7 +1103,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 21 July, 2025 9:07 PM</t>
+    <t>Monday, 21 July, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2197,7 +2206,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2214,7 +2223,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -3600,7 +3609,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3633,7 +3642,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3649,21 +3658,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3675,31 +3684,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3732,7 +3741,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3748,7 +3757,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3781,7 +3790,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3847,7 +3856,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3880,7 +3889,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3946,7 +3955,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4005,7 +4014,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4045,7 +4054,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,31 +4080,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4104,31 +4113,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4243,7 +4252,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4260,7 +4269,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4276,7 +4285,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4309,7 +4318,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4342,7 +4351,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4408,7 +4417,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>255</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4639,7 +4648,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>268</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4830,7 +4839,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,14 +4872,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4929,7 +4938,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,11 +4988,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,11 +5054,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5078,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5111,14 +5120,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>29